--- a/reports/Monthly_Report_Production_2025_12.xlsx
+++ b/reports/Monthly_Report_Production_2025_12.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-12" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -16,247 +16,247 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="83">
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plant</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Plant</t>
   </si>
   <si>
     <t>PPA</t>
   </si>
   <si>
-    <t>zone</t>
-  </si>
-  <si>
-    <t>kite_total_prod_MWh</t>
-  </si>
-  <si>
-    <t>best_total_prod_surplus_MWh</t>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Kit-E Production (MWh)</t>
+  </si>
+  <si>
+    <t>Prod Grid Losses (MWh)</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>Altamura</t>
+  </si>
+  <si>
+    <t>Aquila</t>
+  </si>
+  <si>
+    <t>Aquila 1</t>
+  </si>
+  <si>
+    <t>Bari</t>
+  </si>
+  <si>
+    <t>Borgonovo</t>
+  </si>
+  <si>
+    <t>Cinque</t>
+  </si>
+  <si>
+    <t>Circello 1</t>
   </si>
   <si>
     <t>Circello 2</t>
   </si>
   <si>
+    <t>Curbici</t>
+  </si>
+  <si>
+    <t>Cutrofiano</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>Energheia</t>
+  </si>
+  <si>
+    <t>F.lli Polli</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>FAP</t>
+  </si>
+  <si>
+    <t>Ferrante</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>Gaglianico</t>
+  </si>
+  <si>
+    <t>Galatina 1</t>
+  </si>
+  <si>
+    <t>Galatina 83</t>
+  </si>
+  <si>
+    <t>Galatina De Matteis</t>
+  </si>
+  <si>
+    <t>Ginosa</t>
+  </si>
+  <si>
+    <t>Interporto C1</t>
+  </si>
+  <si>
+    <t>Interporto C2</t>
+  </si>
+  <si>
+    <t>Interporto C3</t>
+  </si>
+  <si>
+    <t>Interporto C4</t>
+  </si>
+  <si>
+    <t>Interporto C5</t>
+  </si>
+  <si>
+    <t>Isola Sud</t>
+  </si>
+  <si>
+    <t>Kaggio</t>
+  </si>
+  <si>
+    <t>Kaggio 1</t>
+  </si>
+  <si>
+    <t>LE-012</t>
+  </si>
+  <si>
+    <t>LE-031</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Lombardi</t>
+  </si>
+  <si>
+    <t>Marcianise</t>
+  </si>
+  <si>
+    <t>Matino A</t>
+  </si>
+  <si>
+    <t>Matino B</t>
+  </si>
+  <si>
+    <t>Matino C</t>
+  </si>
+  <si>
+    <t>Matino D</t>
+  </si>
+  <si>
     <t>Matino E</t>
   </si>
   <si>
     <t>Matino F</t>
   </si>
   <si>
-    <t>Lombardi</t>
+    <t>Matino G</t>
+  </si>
+  <si>
+    <t>Melzo</t>
+  </si>
+  <si>
+    <t>Nogara</t>
+  </si>
+  <si>
+    <t>Novellini 1</t>
+  </si>
+  <si>
+    <t>Novellini 2</t>
+  </si>
+  <si>
+    <t>Oricola</t>
+  </si>
+  <si>
+    <t>Ospedaletto</t>
+  </si>
+  <si>
+    <t>P.S.Elia</t>
+  </si>
+  <si>
+    <t>Roffia Nord</t>
   </si>
   <si>
     <t>Rofilo</t>
   </si>
   <si>
-    <t>Novellini 1</t>
-  </si>
-  <si>
-    <t>Energheia</t>
-  </si>
-  <si>
-    <t>Roffia Nord</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>Matino C</t>
-  </si>
-  <si>
-    <t>Marcianise</t>
-  </si>
-  <si>
-    <t>Ginosa</t>
-  </si>
-  <si>
-    <t>Interporto C3</t>
-  </si>
-  <si>
-    <t>F.lli Polli</t>
-  </si>
-  <si>
-    <t>Matino D</t>
-  </si>
-  <si>
-    <t>P.S.Elia</t>
+    <t>Rovigo</t>
+  </si>
+  <si>
+    <t>Sabaudia</t>
+  </si>
+  <si>
+    <t>Santamaria</t>
+  </si>
+  <si>
+    <t>Serrotti Est</t>
+  </si>
+  <si>
+    <t>Siracusa</t>
+  </si>
+  <si>
+    <t>Spongano</t>
+  </si>
+  <si>
+    <t>Stomeo</t>
   </si>
   <si>
     <t>Stornara</t>
   </si>
   <si>
-    <t>Interporto C5</t>
-  </si>
-  <si>
-    <t>Siracusa</t>
-  </si>
-  <si>
-    <t>Galatina 1</t>
-  </si>
-  <si>
-    <t>Ferrante</t>
-  </si>
-  <si>
-    <t>Aquila</t>
-  </si>
-  <si>
-    <t>Cutrofiano</t>
-  </si>
-  <si>
-    <t>LE-012</t>
-  </si>
-  <si>
-    <t>Matino B</t>
-  </si>
-  <si>
-    <t>Borgonovo</t>
-  </si>
-  <si>
-    <t>FAP</t>
-  </si>
-  <si>
-    <t>Santamaria</t>
-  </si>
-  <si>
-    <t>Isola Sud</t>
-  </si>
-  <si>
-    <t>Melzo</t>
-  </si>
-  <si>
-    <t>Interporto C4</t>
-  </si>
-  <si>
-    <t>Novellini 2</t>
+    <t>Stornarella</t>
   </si>
   <si>
     <t>Surbo</t>
   </si>
   <si>
-    <t>Circello 1</t>
-  </si>
-  <si>
-    <t>Kaggio</t>
-  </si>
-  <si>
-    <t>Kaggio 1</t>
-  </si>
-  <si>
-    <t>Cinque</t>
-  </si>
-  <si>
-    <t>Bari</t>
-  </si>
-  <si>
-    <t>Galatina De Matteis</t>
-  </si>
-  <si>
-    <t>Galatina 83</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>Oricola</t>
+    <t>Uta</t>
+  </si>
+  <si>
+    <t>Vibo</t>
   </si>
   <si>
     <t>Villacidro 1</t>
   </si>
   <si>
-    <t>Matino A</t>
-  </si>
-  <si>
-    <t>Ospedaletto</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Vibo</t>
-  </si>
-  <si>
-    <t>Interporto C1</t>
-  </si>
-  <si>
-    <t>Stornarella</t>
-  </si>
-  <si>
-    <t>Stomeo</t>
-  </si>
-  <si>
-    <t>LE-031</t>
-  </si>
-  <si>
-    <t>Spongano</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Sabaudia</t>
-  </si>
-  <si>
-    <t>Altamura</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>Uta</t>
-  </si>
-  <si>
-    <t>Aquila 1</t>
-  </si>
-  <si>
-    <t>Matino G</t>
-  </si>
-  <si>
-    <t>Gaglianico</t>
-  </si>
-  <si>
     <t>Villacidro 2</t>
   </si>
   <si>
-    <t>Serrotti Est</t>
-  </si>
-  <si>
-    <t>Nogara</t>
-  </si>
-  <si>
-    <t>Rovigo</t>
-  </si>
-  <si>
-    <t>Interporto C2</t>
-  </si>
-  <si>
-    <t>Curbici</t>
-  </si>
-  <si>
     <t>Inxieme</t>
   </si>
   <si>
     <t>A2A</t>
   </si>
   <si>
+    <t>IT-CNOR</t>
+  </si>
+  <si>
+    <t>IT-SUD</t>
+  </si>
+  <si>
+    <t>IT-SICI</t>
+  </si>
+  <si>
+    <t>IT-NORD</t>
+  </si>
+  <si>
     <t>IT-CSUD</t>
-  </si>
-  <si>
-    <t>IT-SUD</t>
-  </si>
-  <si>
-    <t>IT-NORD</t>
-  </si>
-  <si>
-    <t>IT-CNOR</t>
-  </si>
-  <si>
-    <t>IT-SICI</t>
   </si>
   <si>
     <t>IT-SARD</t>
@@ -666,10 +666,10 @@
         <v>76</v>
       </c>
       <c r="F2">
-        <v>107.57</v>
+        <v>29.37</v>
       </c>
       <c r="G2">
-        <v>110.06</v>
+        <v>30.05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -683,16 +683,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>77</v>
       </c>
       <c r="F3">
-        <v>53.33</v>
+        <v>62.15</v>
       </c>
       <c r="G3">
-        <v>55.1</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -709,13 +709,13 @@
         <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4">
-        <v>29.66</v>
+        <v>60.5</v>
       </c>
       <c r="G4">
-        <v>31.55</v>
+        <v>61.89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -732,13 +732,13 @@
         <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5">
-        <v>43.72</v>
+        <v>152.99</v>
       </c>
       <c r="G5">
-        <v>44.74</v>
+        <v>156.79</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -758,10 +758,10 @@
         <v>77</v>
       </c>
       <c r="F6">
-        <v>43.34</v>
+        <v>35.29</v>
       </c>
       <c r="G6">
-        <v>44.34</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -778,13 +778,13 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7">
-        <v>16.17</v>
+        <v>30.13</v>
       </c>
       <c r="G7">
-        <v>16.59</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -801,13 +801,10 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8">
-        <v>39.85</v>
+        <v>79</v>
       </c>
       <c r="G8">
-        <v>40.74</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -821,16 +818,16 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>56.02</v>
+        <v>141.92</v>
       </c>
       <c r="G9">
-        <v>57.32</v>
+        <v>145.19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -847,13 +844,13 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>29.37</v>
+        <v>107.57</v>
       </c>
       <c r="G10">
-        <v>30.05</v>
+        <v>110.06</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -870,13 +867,13 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11">
-        <v>48.16</v>
+        <v>157.4</v>
       </c>
       <c r="G11">
-        <v>49.37</v>
+        <v>160.72</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -890,16 +887,16 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
         <v>77</v>
       </c>
       <c r="F12">
-        <v>19.39</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="G12">
-        <v>20.56</v>
+        <v>68.84</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -913,16 +910,16 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
         <v>76</v>
       </c>
       <c r="F13">
-        <v>38.12</v>
+        <v>48.16</v>
       </c>
       <c r="G13">
-        <v>39.04</v>
+        <v>49.37</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -936,16 +933,16 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
         <v>77</v>
       </c>
       <c r="F14">
-        <v>100.58</v>
+        <v>39.85</v>
       </c>
       <c r="G14">
-        <v>102.91</v>
+        <v>40.74</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -962,13 +959,10 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15">
-        <v>45.7</v>
+        <v>76</v>
       </c>
       <c r="G15">
-        <v>46.87</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -985,10 +979,13 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="F16">
+        <v>39.11</v>
       </c>
       <c r="G16">
-        <v>1.51</v>
+        <v>40.09</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1002,16 +999,16 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17">
-        <v>55.8</v>
+        <v>33.77</v>
       </c>
       <c r="G17">
-        <v>59.27</v>
+        <v>34.43</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1028,13 +1025,13 @@
         <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18">
-        <v>157.29</v>
+        <v>48.61</v>
       </c>
       <c r="G18">
-        <v>160.91</v>
+        <v>49.76</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1051,13 +1048,13 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19">
-        <v>57.06</v>
+        <v>435.27</v>
       </c>
       <c r="G19">
-        <v>59.83</v>
+        <v>445.35</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1071,16 +1068,16 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20">
-        <v>143.34</v>
+        <v>27.66</v>
       </c>
       <c r="G20">
-        <v>146.79</v>
+        <v>45.54</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1097,13 +1094,13 @@
         <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21">
-        <v>24.21</v>
+        <v>14.62</v>
       </c>
       <c r="G21">
-        <v>71.89</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1140,16 +1137,16 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F23">
-        <v>435.27</v>
+        <v>91.89</v>
       </c>
       <c r="G23">
-        <v>445.35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1166,13 +1163,13 @@
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F24">
-        <v>60.5</v>
+        <v>56.12</v>
       </c>
       <c r="G24">
-        <v>61.89</v>
+        <v>57.63</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1192,10 +1189,10 @@
         <v>77</v>
       </c>
       <c r="F25">
-        <v>67.23999999999999</v>
+        <v>100.58</v>
       </c>
       <c r="G25">
-        <v>68.84</v>
+        <v>102.91</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1212,13 +1209,13 @@
         <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F26">
-        <v>68.81999999999999</v>
+        <v>56.74</v>
       </c>
       <c r="G26">
-        <v>70.63</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1232,16 +1229,16 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F27">
-        <v>22.88</v>
+        <v>192.93</v>
       </c>
       <c r="G27">
-        <v>24.27</v>
+        <v>197.38</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1258,13 +1255,13 @@
         <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28">
-        <v>30.13</v>
+        <v>45.7</v>
       </c>
       <c r="G28">
-        <v>30.84</v>
+        <v>46.87</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1281,13 +1278,13 @@
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F29">
-        <v>48.61</v>
+        <v>28.29</v>
       </c>
       <c r="G29">
-        <v>49.76</v>
+        <v>28.93</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1304,13 +1301,13 @@
         <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F30">
-        <v>47.66</v>
+        <v>143.34</v>
       </c>
       <c r="G30">
-        <v>48.79</v>
+        <v>146.79</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1327,7 +1324,7 @@
         <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F31">
         <v>48.24</v>
@@ -1347,16 +1344,16 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
         <v>78</v>
       </c>
       <c r="F32">
-        <v>19.71</v>
+        <v>263.78</v>
       </c>
       <c r="G32">
-        <v>20.21</v>
+        <v>269.53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1370,16 +1367,16 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
         <v>78</v>
       </c>
       <c r="F33">
-        <v>28.29</v>
+        <v>177.91</v>
       </c>
       <c r="G33">
-        <v>28.93</v>
+        <v>181.51</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1396,13 +1393,13 @@
         <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34">
-        <v>17.96</v>
+        <v>68.83</v>
       </c>
       <c r="G34">
-        <v>18.4</v>
+        <v>70.63</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1416,16 +1413,16 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
         <v>77</v>
       </c>
       <c r="F35">
-        <v>63.35</v>
+        <v>2.84</v>
       </c>
       <c r="G35">
-        <v>64.81</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1439,16 +1436,16 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F36">
-        <v>141.92</v>
+        <v>94.78</v>
       </c>
       <c r="G36">
-        <v>145.19</v>
+        <v>96.98</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1462,16 +1459,16 @@
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F37">
-        <v>263.78</v>
+        <v>43.72</v>
       </c>
       <c r="G37">
-        <v>269.53</v>
+        <v>44.74</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1485,16 +1482,16 @@
         <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
         <v>80</v>
       </c>
       <c r="F38">
-        <v>177.91</v>
+        <v>38.12</v>
       </c>
       <c r="G38">
-        <v>181.51</v>
+        <v>39.04</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1511,10 +1508,13 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="F39">
+        <v>21.24</v>
       </c>
       <c r="G39">
-        <v>22.92</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1534,10 +1534,10 @@
         <v>77</v>
       </c>
       <c r="F40">
-        <v>35.29</v>
+        <v>22.88</v>
       </c>
       <c r="G40">
-        <v>36.1</v>
+        <v>24.27</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1557,10 +1557,10 @@
         <v>77</v>
       </c>
       <c r="F41">
-        <v>56.12</v>
+        <v>19.39</v>
       </c>
       <c r="G41">
-        <v>57.63</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1574,16 +1574,16 @@
         <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
         <v>77</v>
       </c>
       <c r="F42">
-        <v>91.89</v>
+        <v>55.8</v>
       </c>
       <c r="G42">
-        <v>94</v>
+        <v>59.27</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1597,16 +1597,16 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F43">
-        <v>27.66</v>
+        <v>53.33</v>
       </c>
       <c r="G43">
-        <v>45.54</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1623,13 +1623,13 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F44">
-        <v>25.51</v>
+        <v>29.66</v>
       </c>
       <c r="G44">
-        <v>26.15</v>
+        <v>31.55</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1646,13 +1646,10 @@
         <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45">
-        <v>48.24</v>
+        <v>77</v>
       </c>
       <c r="G45">
-        <v>51.02</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1669,13 +1666,13 @@
         <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F46">
-        <v>21.24</v>
+        <v>19.71</v>
       </c>
       <c r="G46">
-        <v>22.49</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1692,13 +1689,13 @@
         <v>74</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47">
-        <v>22.21</v>
+        <v>21.23</v>
       </c>
       <c r="G47">
-        <v>22.74</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1718,10 +1715,10 @@
         <v>79</v>
       </c>
       <c r="F48">
-        <v>39.11</v>
+        <v>16.17</v>
       </c>
       <c r="G48">
-        <v>40.09</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1735,16 +1732,16 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F49">
-        <v>90.17</v>
+        <v>17.96</v>
       </c>
       <c r="G49">
-        <v>92.15000000000001</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1761,13 +1758,13 @@
         <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F50">
-        <v>56.74</v>
+        <v>25.51</v>
       </c>
       <c r="G50">
-        <v>58.2</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1784,13 +1781,13 @@
         <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F51">
-        <v>17.02</v>
+        <v>22.21</v>
       </c>
       <c r="G51">
-        <v>17.4</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1807,13 +1804,13 @@
         <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F52">
-        <v>61.49</v>
+        <v>157.29</v>
       </c>
       <c r="G52">
-        <v>62.87</v>
+        <v>160.91</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1827,16 +1824,16 @@
         <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F53">
-        <v>2.84</v>
+        <v>56.02</v>
       </c>
       <c r="G53">
-        <v>62.16</v>
+        <v>57.32</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1856,10 +1853,10 @@
         <v>77</v>
       </c>
       <c r="F54">
-        <v>6.35</v>
+        <v>43.34</v>
       </c>
       <c r="G54">
-        <v>69.95999999999999</v>
+        <v>44.34</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1873,16 +1870,16 @@
         <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F55">
-        <v>94.78</v>
+        <v>182.3</v>
       </c>
       <c r="G55">
-        <v>96.98</v>
+        <v>186.51</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1899,7 +1896,7 @@
         <v>74</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F56">
         <v>478.42</v>
@@ -1919,16 +1916,16 @@
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" t="s">
         <v>77</v>
       </c>
       <c r="F57">
-        <v>62.15</v>
+        <v>47.66</v>
       </c>
       <c r="G57">
-        <v>63.52</v>
+        <v>48.79</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1942,16 +1939,16 @@
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E58" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F58">
-        <v>33.77</v>
+        <v>37.28</v>
       </c>
       <c r="G58">
-        <v>34.43</v>
+        <v>38.13</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1968,13 +1965,13 @@
         <v>74</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F59">
-        <v>55.61</v>
+        <v>24.21</v>
       </c>
       <c r="G59">
-        <v>56.74</v>
+        <v>71.89</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1991,13 +1988,13 @@
         <v>74</v>
       </c>
       <c r="E60" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F60">
-        <v>152.99</v>
+        <v>6.35</v>
       </c>
       <c r="G60">
-        <v>156.79</v>
+        <v>69.95999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2016,8 +2013,11 @@
       <c r="E61" t="s">
         <v>77</v>
       </c>
+      <c r="F61">
+        <v>61.49</v>
+      </c>
       <c r="G61">
-        <v>2.14</v>
+        <v>62.87</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2034,13 +2034,13 @@
         <v>74</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F62">
-        <v>14.62</v>
+        <v>57.06</v>
       </c>
       <c r="G62">
-        <v>14.98</v>
+        <v>59.83</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2057,13 +2057,13 @@
         <v>74</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F63">
-        <v>49.93</v>
+        <v>17.02</v>
       </c>
       <c r="G63">
-        <v>49.34</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2077,16 +2077,16 @@
         <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64">
-        <v>37.28</v>
+        <v>63.35</v>
       </c>
       <c r="G64">
-        <v>38.13</v>
+        <v>64.81</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2103,13 +2103,13 @@
         <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F65">
-        <v>21.23</v>
+        <v>55.61</v>
       </c>
       <c r="G65">
-        <v>21.71</v>
+        <v>56.74</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2123,16 +2123,16 @@
         <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F66">
-        <v>182.3</v>
+        <v>90.17</v>
       </c>
       <c r="G66">
-        <v>186.51</v>
+        <v>92.15000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2146,16 +2146,16 @@
         <v>72</v>
       </c>
       <c r="D67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E67" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F67">
-        <v>192.93</v>
+        <v>48.24</v>
       </c>
       <c r="G67">
-        <v>197.38</v>
+        <v>51.02</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2169,16 +2169,16 @@
         <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F68">
-        <v>157.4</v>
+        <v>49.93</v>
       </c>
       <c r="G68">
-        <v>160.72</v>
+        <v>49.34</v>
       </c>
     </row>
   </sheetData>
